--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -391,7 +396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -485,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +521,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -725,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +776,81 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,95 +872,53 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -927,7 +983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +1018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,13 +1230,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1193,46 +1249,46 @@
     <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1255,853 +1311,854 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="50">
         <v>45134</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="50">
         <v>45135</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="52">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="21" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="42">
         <v>45138</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42">
         <v>45142</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="44">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="22" t="s">
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="11">
         <v>45145</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
         <v>45149</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="11">
         <v>45152</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
         <v>45156</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="27">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="11">
         <v>45159</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11">
         <v>45163</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="11">
         <v>45166</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11">
         <v>45170</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="13">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="33">
         <v>45166</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="11">
         <v>45173</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11">
         <v>45177</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="11">
         <v>45180</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
         <v>45184</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="22" t="s">
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>45187</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
         <v>45191</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <v>45190</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="11">
         <v>45194</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
         <v>45196</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="11">
         <v>45201</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
         <v>45205</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="27">
         <f>DAYS360(C15,E15)</f>
         <v>4</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="11">
         <v>45209</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
         <v>45212</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="11">
         <v>45215</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
         <v>45219</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="33">
         <v>45215</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="11">
         <v>45222</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
         <v>45226</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="11">
         <v>45229</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
         <v>45233</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="13">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="33">
         <v>45229</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="11">
         <v>45236</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11">
         <v>45240</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="11">
         <v>45243</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11">
         <v>45247</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="33">
         <v>45243</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="11">
         <v>45250</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11">
         <v>45254</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="11">
         <v>45257</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11">
         <v>45261</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="11">
         <v>45264</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11">
         <v>45268</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="33">
         <v>45264</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="30"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="11">
         <v>45271</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
         <v>45275</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="26" t="s">
+      <c r="H25" s="19"/>
+      <c r="I25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="30"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="11">
         <v>45278</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
         <v>45282</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="19"/>
+      <c r="I26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="11">
         <v>45286</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11">
         <v>45289</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="33">
         <v>45286</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L27" s="32"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="11">
         <v>45293</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11">
         <v>45296</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="26" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="32"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="11">
         <v>45299</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
         <v>45303</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="26" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="32"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="22">
         <v>45306</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="34">
+      <c r="D30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="22">
         <v>45309</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2114,32 +2171,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="2:11" s="5" customFormat="1" ht="20.65">
-      <c r="B33" s="12" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
+      <c r="B33" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2161,7 +2218,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,7 +2231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -748,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +893,27 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,28 +936,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1251,7 +1254,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1272,41 +1275,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1360,103 +1363,103 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="49">
         <v>45138</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="57">
+      <c r="D6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="49">
         <v>45142</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="51">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="62"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="49">
         <v>45145</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="D7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="49">
         <v>45149</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="34">
         <v>45152</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="34">
         <v>45156</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="36">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="62"/>
+      <c r="I8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B9" s="10" t="s">
@@ -2189,32 +2192,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
     </row>
     <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>3주차</t>
   </si>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>1차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -390,6 +386,22 @@
   </si>
   <si>
     <t>Flutter 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계 / 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃 / 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +926,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,11 +950,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1254,7 +1269,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1275,41 +1290,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -1359,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1380,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="50" t="s">
@@ -1390,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="54"/>
     </row>
@@ -1412,86 +1427,86 @@
         <v>5</v>
       </c>
       <c r="G7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>61</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>62</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="49">
         <v>45152</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="34">
+      <c r="D8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="49">
         <v>45156</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="51">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="39"/>
+      <c r="J8" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="34">
         <v>45159</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34">
         <v>45163</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="16"/>
+      <c r="G9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B10" s="10" t="s">
@@ -1511,19 +1526,19 @@
         <v>5</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="32">
         <v>45166</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="L10" s="16"/>
     </row>
@@ -1545,17 +1560,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="16"/>
     </row>
@@ -1577,17 +1592,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="16"/>
     </row>
@@ -1609,19 +1624,19 @@
         <v>5</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="32">
         <v>45190</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="16"/>
     </row>
@@ -1643,17 +1658,17 @@
         <v>3</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" s="16"/>
     </row>
@@ -1675,17 +1690,17 @@
         <v>4</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -1707,17 +1722,17 @@
         <v>4</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" s="16"/>
     </row>
@@ -1739,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="32">
         <v>45215</v>
@@ -1748,10 +1763,10 @@
         <v>39</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" s="31"/>
     </row>
@@ -1773,17 +1788,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -1805,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="32">
         <v>45229</v>
@@ -1814,10 +1829,10 @@
         <v>39</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="16"/>
     </row>
@@ -1839,20 +1854,20 @@
         <v>5</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15" t="s">
         <v>39</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1873,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="32">
         <v>45243</v>
@@ -1882,10 +1897,10 @@
         <v>39</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -1907,17 +1922,17 @@
         <v>5</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L22" s="16"/>
     </row>
@@ -1939,17 +1954,17 @@
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
         <v>40</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="16"/>
     </row>
@@ -1971,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="32">
         <v>45264</v>
@@ -1980,10 +1995,10 @@
         <v>40</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="18"/>
     </row>
@@ -2005,17 +2020,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L25" s="18"/>
     </row>
@@ -2037,17 +2052,17 @@
         <v>5</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="14" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" s="20"/>
     </row>
@@ -2069,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="32">
         <v>45286</v>
@@ -2078,10 +2093,10 @@
         <v>40</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L27" s="20"/>
     </row>
@@ -2103,17 +2118,17 @@
         <v>4</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28" s="20"/>
     </row>
@@ -2135,17 +2150,17 @@
         <v>5</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2167,20 +2182,20 @@
         <v>4</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2192,32 +2207,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
-      <c r="B33" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
+      <c r="B33" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -929,6 +929,9 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,10 +953,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1290,41 +1290,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="G8" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="64"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="50" t="s">
         <v>38</v>
       </c>
@@ -1476,71 +1476,71 @@
       <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="49">
         <v>45159</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="D9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="49">
         <v>45163</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="35" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="34">
         <v>45166</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="34">
         <v>45170</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="36">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="64">
         <v>45166</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B11" s="10" t="s">
@@ -2207,32 +2207,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>3주차</t>
   </si>
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -932,6 +928,9 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,9 +950,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1265,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1290,41 +1286,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1365,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -1374,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1395,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="50" t="s">
@@ -1427,19 +1423,19 @@
         <v>5</v>
       </c>
       <c r="G7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="54"/>
     </row>
@@ -1461,17 +1457,17 @@
         <v>4</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="50" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" s="54"/>
     </row>
@@ -1493,86 +1489,86 @@
         <v>5</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="49">
         <v>45166</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="49">
         <v>45170</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="51">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="64">
+      <c r="G10" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="56">
         <v>45166</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="34">
         <v>45173</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="34">
         <v>45177</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="16"/>
+      <c r="J11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B12" s="10" t="s">
@@ -1592,14 +1588,14 @@
         <v>5</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>44</v>
@@ -1624,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="32">
         <v>45190</v>
@@ -1633,10 +1629,10 @@
         <v>47</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="16"/>
     </row>
@@ -1658,17 +1654,17 @@
         <v>3</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="16"/>
     </row>
@@ -1690,17 +1686,17 @@
         <v>4</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -1722,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15" t="s">
@@ -1732,7 +1728,7 @@
         <v>43</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="16"/>
     </row>
@@ -1754,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="32">
         <v>45215</v>
@@ -1766,7 +1762,7 @@
         <v>43</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="31"/>
     </row>
@@ -1788,17 +1784,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -1820,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="32">
         <v>45229</v>
@@ -1832,7 +1828,7 @@
         <v>43</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="16"/>
     </row>
@@ -1854,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15" t="s">
@@ -1864,10 +1860,10 @@
         <v>43</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1888,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="32">
         <v>45243</v>
@@ -1900,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -1922,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
@@ -1932,7 +1928,7 @@
         <v>43</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="16"/>
     </row>
@@ -1954,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
@@ -1964,7 +1960,7 @@
         <v>43</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" s="16"/>
     </row>
@@ -1986,7 +1982,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="32">
         <v>45264</v>
@@ -1995,10 +1991,10 @@
         <v>40</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="18"/>
     </row>
@@ -2020,17 +2016,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L25" s="18"/>
     </row>
@@ -2052,17 +2048,17 @@
         <v>5</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="14" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" s="20"/>
     </row>
@@ -2084,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="32">
         <v>45286</v>
@@ -2093,10 +2089,10 @@
         <v>40</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" s="20"/>
     </row>
@@ -2118,17 +2114,17 @@
         <v>4</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L28" s="20"/>
     </row>
@@ -2150,17 +2146,17 @@
         <v>5</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2182,20 +2178,20 @@
         <v>4</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2207,32 +2203,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
-      <c r="B33" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
+      <c r="B33" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -16,21 +11,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
   </si>
   <si>
     <t>____________________________________________________________________________________________________________________</t>
-  </si>
-  <si>
-    <t>2차 주제선정 / 분석,설계</t>
   </si>
   <si>
     <t>1차 주제선정 / 분석,설계</t>
@@ -183,10 +175,6 @@
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 Javascript 기본</t>
-  </si>
-  <si>
-    <t>Javascript 응용
-React 기초</t>
   </si>
   <si>
     <t>2023-08-08
@@ -333,20 +321,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 응용
-React 응용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-09-22(금) 작품발표회
 [1차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 팔로우업 / 2차 주제선정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 팔로우업 / 2차 분석,설계</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용
+React 인트로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Javascript 응용
+React 기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(ES6 JS)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용
+React 기초(ES6 JS)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용
+PHP 연결구현</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -417,7 +444,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,12 +499,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -681,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +820,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,6 +874,36 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,41 +925,20 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,11 +1248,11 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="3" bestFit="1" customWidth="1"/>
@@ -1241,430 +1268,430 @@
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="41">
         <v>45134</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="42">
+      <c r="D5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="41">
         <v>45135</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="46" t="s">
+      <c r="G5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="50">
+      <c r="L5" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="49">
         <v>45138</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="D6" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="49">
         <v>45142</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="55"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="50">
+      <c r="G6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="49">
         <v>45145</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="50">
+      <c r="D7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="49">
         <v>45149</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="54" t="s">
+      <c r="G7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="55"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="50">
+      <c r="I7" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="49">
         <v>45152</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="D8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="49">
         <v>45156</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="55"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="50">
+      <c r="G8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="49">
         <v>45159</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="50">
+      <c r="D9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="49">
         <v>45163</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="55"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="50">
+      <c r="G9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="49">
         <v>45166</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="50">
+      <c r="D10" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="49">
         <v>45170</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="57">
+      <c r="G10" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="56">
         <v>45166</v>
       </c>
-      <c r="I10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="55"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="50">
+      <c r="I10" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="49">
         <v>45173</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="D11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="49">
         <v>45177</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="55"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="67">
+      <c r="G11" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="58">
         <v>45180</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="67">
+      <c r="D12" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="58">
         <v>45184</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="73"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="35">
+      <c r="G12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="64"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="58">
         <v>45187</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="D13" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="58">
         <v>45191</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="65">
+      <c r="G13" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="75">
         <v>45190</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="K13" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="64"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="47"/>
+      <c r="B14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="35">
         <v>45194</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="35">
         <v>45196</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="12">
-        <v>45201</v>
+        <v>45203</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="12">
         <v>45205</v>
       </c>
       <c r="F15" s="28">
-        <f>DAYS360(C15,E15)</f>
-        <v>4</v>
+        <f>DAYS360(C15,E15)+1</f>
+        <v>3</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="75" t="s">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>95</v>
       </c>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="12">
         <v>45209</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="12">
         <v>45212</v>
@@ -1674,29 +1701,29 @@
         <v>4</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="75" t="s">
-        <v>91</v>
+      <c r="K16" s="66" t="s">
+        <v>88</v>
       </c>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="12">
         <v>45215</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="12">
         <v>45219</v>
@@ -1706,31 +1733,31 @@
         <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="33">
         <v>45215</v>
       </c>
       <c r="I17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>54</v>
+      <c r="K17" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="12">
         <v>45222</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="12">
         <v>45226</v>
@@ -1740,29 +1767,29 @@
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="K18" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="12">
         <v>45229</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="12">
         <v>45233</v>
@@ -1772,31 +1799,31 @@
         <v>5</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="33">
         <v>45229</v>
       </c>
       <c r="I19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="K19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="12">
         <v>45236</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="12">
         <v>45240</v>
@@ -1806,31 +1833,31 @@
         <v>5</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="K20" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B21" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12">
         <v>45243</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="12">
         <v>45247</v>
@@ -1840,31 +1867,31 @@
         <v>5</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="33">
         <v>45243</v>
       </c>
       <c r="I21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="K21" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="12">
         <v>45250</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="12">
         <v>45254</v>
@@ -1874,29 +1901,29 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="12">
         <v>45257</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="12">
         <v>45261</v>
@@ -1906,29 +1933,29 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B24" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="12">
         <v>45264</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="12">
         <v>45268</v>
@@ -1938,31 +1965,31 @@
         <v>5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="33">
         <v>45264</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B25" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="12">
         <v>45271</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="12">
         <v>45275</v>
@@ -1972,29 +1999,29 @@
         <v>5</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B26" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="12">
         <v>45278</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="12">
         <v>45282</v>
@@ -2004,29 +2031,29 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B27" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="12">
         <v>45289</v>
@@ -2036,31 +2063,31 @@
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="33">
         <v>45286</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B28" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="12">
         <v>45296</v>
@@ -2070,29 +2097,29 @@
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="K28" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B29" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="12">
         <v>45303</v>
@@ -2102,55 +2129,55 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="K29" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B30" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="23">
         <v>45306</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="23">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="F30" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2158,33 +2185,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="60" t="s">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-    </row>
-    <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+    </row>
+    <row r="33" spans="2:11" s="6" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="B33" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2207,7 +2234,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2222,7 +2249,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -373,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -702,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +909,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,19 +942,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,11 +1256,11 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="3" bestFit="1" customWidth="1"/>
@@ -1268,42 +1276,42 @@
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1396,7 @@
       </c>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1430,7 @@
       </c>
       <c r="L7" s="54"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1462,7 @@
       </c>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1494,7 @@
       </c>
       <c r="L9" s="54"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1528,7 @@
       </c>
       <c r="L10" s="54"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="48" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1560,7 @@
       </c>
       <c r="L11" s="54"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1592,7 @@
       </c>
       <c r="L12" s="64"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
         <v>18</v>
       </c>
@@ -1604,86 +1612,86 @@
       <c r="G13" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="68">
         <v>45190</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="69" t="s">
         <v>93</v>
       </c>
       <c r="L13" s="64"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="47"/>
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="58">
         <v>45194</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="D14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="58">
         <v>45196</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="65" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="11" t="s">
+      <c r="L14" s="64"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
+      <c r="B15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="35">
         <v>45203</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="35">
         <v>45205</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="37">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>75</v>
       </c>
@@ -1715,7 +1723,7 @@
       </c>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>65</v>
       </c>
@@ -1749,7 +1757,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>67</v>
       </c>
@@ -1781,7 +1789,7 @@
       </c>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
@@ -1815,7 +1823,7 @@
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>69</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>68</v>
       </c>
@@ -1883,7 +1891,7 @@
       </c>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>63</v>
       </c>
@@ -1915,7 +1923,7 @@
       </c>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>74</v>
       </c>
@@ -1947,7 +1955,7 @@
       </c>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>77</v>
       </c>
@@ -2013,7 +2021,7 @@
       </c>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>59</v>
       </c>
@@ -2045,7 +2053,7 @@
       </c>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>72</v>
       </c>
@@ -2079,7 +2087,7 @@
       </c>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>73</v>
       </c>
@@ -2111,7 +2119,7 @@
       </c>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>60</v>
       </c>
@@ -2143,7 +2151,7 @@
       </c>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2185,33 +2193,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="69" t="s">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-    </row>
-    <row r="33" spans="2:11" s="6" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="B33" s="70" t="s">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+    </row>
+    <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2234,7 +2242,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2249,7 +2257,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -193,9 +188,6 @@
   </si>
   <si>
     <t>도깨비 PJ v1. / CGV PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
   </si>
   <si>
     <t>React 응용
@@ -336,10 +328,6 @@
   </si>
   <si>
     <t>1차 팔로우업 / 2차 주제선정</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 팔로우업 / 2차 분석,설계</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -374,11 +362,35 @@
 PHP 연결구현</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>1차 팔로우업 / 2차 주제선정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2차 주제선정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + 분석설계</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -707,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +774,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,9 +918,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,6 +927,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,10 +951,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1277,41 +1283,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1319,413 +1325,413 @@
         <v>25</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>45134</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="41">
+      <c r="D5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="40">
         <v>45135</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="45" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="46" t="s">
-        <v>83</v>
+      <c r="L5" s="45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>45138</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="48">
         <v>45142</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>45145</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="49">
+      <c r="D7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="48">
         <v>45149</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>45152</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="49">
+      <c r="D8" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="48">
         <v>45156</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="53" t="s">
+      <c r="J8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>45159</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="49">
+      <c r="D9" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="48">
         <v>45163</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="50" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>45166</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="49">
+      <c r="D10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="48">
         <v>45170</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="55">
         <v>45166</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="53" t="s">
+      <c r="J10" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>45173</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="49">
+      <c r="D11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="48">
         <v>45177</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="53" t="s">
+      <c r="G11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="53" t="s">
+      <c r="J11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="57">
         <v>45180</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="58">
+      <c r="D12" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="57">
         <v>45184</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63" t="s">
+      <c r="G12" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="63" t="s">
+      <c r="J12" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="64"/>
+      <c r="L12" s="63"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>45187</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="58">
+      <c r="D13" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="57">
         <v>45191</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="66">
         <v>45190</v>
       </c>
-      <c r="I13" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="64"/>
+      <c r="I13" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="58">
+      <c r="B14" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="57">
         <v>45194</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="58">
+      <c r="D14" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="57">
         <v>45196</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="59">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="69" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="64"/>
+      <c r="K14" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="57">
         <v>45203</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="57">
         <v>45205</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="59">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="65" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="K15" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="A16" s="46"/>
+      <c r="B16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="34">
         <v>45209</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="34">
         <v>45212</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="17"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12">
         <v>45215</v>
@@ -1743,23 +1749,23 @@
       <c r="G17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>45215</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="K17" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="12">
         <v>45222</v>
@@ -1775,23 +1781,23 @@
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12">
         <v>45229</v>
@@ -1809,23 +1815,23 @@
       <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="32">
         <v>45229</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="12">
         <v>45236</v>
@@ -1845,21 +1851,21 @@
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="12">
         <v>45243</v>
@@ -1877,23 +1883,23 @@
       <c r="G21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <v>45243</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12">
         <v>45250</v>
@@ -1909,23 +1915,23 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="K22" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="12">
         <v>45257</v>
@@ -1941,23 +1947,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="K23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="12">
         <v>45264</v>
@@ -1975,11 +1981,11 @@
       <c r="G24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>45264</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
@@ -1987,11 +1993,11 @@
       <c r="K24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="19"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="12">
         <v>45271</v>
@@ -2009,9 +2015,9 @@
       <c r="G25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2019,11 +2025,11 @@
       <c r="K25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="19"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12">
         <v>45278</v>
@@ -2041,9 +2047,9 @@
       <c r="G26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
@@ -2051,11 +2057,11 @@
       <c r="K26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="21"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
@@ -2066,30 +2072,30 @@
       <c r="E27" s="12">
         <v>45289</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <v>45286</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="21"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
@@ -2100,28 +2106,28 @@
       <c r="E28" s="12">
         <v>45296</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="21"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
@@ -2137,51 +2143,51 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="21"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="B30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="22">
         <v>45306</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="D30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="22">
         <v>45310</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="27" t="s">
+      <c r="G30" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="31" t="s">
+      <c r="K30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2194,32 +2200,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -386,11 +391,27 @@
     <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -719,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,15 +828,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,9 +849,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,19 +927,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +960,16 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1282,42 +1300,42 @@
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1340,430 +1358,430 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>45134</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="D5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="37">
         <v>45135</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="39">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="45">
         <v>45138</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="D6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="45">
         <v>45142</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="47">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="49" t="s">
+      <c r="H6" s="48"/>
+      <c r="I6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="53"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <v>45145</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="D7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="45">
         <v>45149</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <v>45152</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="48">
+      <c r="D8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="45">
         <v>45156</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="47">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="49" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="45">
         <v>45159</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="D9" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="45">
         <v>45163</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <v>45166</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="D10" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="45">
         <v>45170</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="47">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="52">
         <v>45166</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <v>45173</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="48">
+      <c r="D11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="45">
         <v>45177</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="52" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="52" t="s">
+      <c r="K11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="54">
         <v>45180</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="57">
+      <c r="D12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="54">
         <v>45184</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62" t="s">
+      <c r="H12" s="58"/>
+      <c r="I12" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="63"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="L12" s="60"/>
+    </row>
+    <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="54">
         <v>45187</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="57">
+      <c r="D13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="54">
         <v>45191</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="62">
         <v>45190</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="63"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="54">
         <v>45194</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="57">
+      <c r="D14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="54">
         <v>45196</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="63"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="56" t="s">
+      <c r="L14" s="60"/>
+    </row>
+    <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="54">
         <v>45203</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="57">
+      <c r="D15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="54">
         <v>45205</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="56">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="67" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="63"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="33" t="s">
+      <c r="L15" s="60"/>
+    </row>
+    <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="54">
         <v>45209</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="54">
         <v>45212</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="64" t="s">
+      <c r="H16" s="62"/>
+      <c r="I16" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="L16" s="60"/>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="32">
         <v>45215</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="32">
         <v>45219</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="65">
         <v>45215</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="74"/>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>66</v>
       </c>
@@ -1795,7 +1813,7 @@
       </c>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1815,7 +1833,7 @@
       <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>45229</v>
       </c>
       <c r="I19" s="16" t="s">
@@ -1829,7 +1847,7 @@
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>68</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1883,7 +1901,7 @@
       <c r="G21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>45243</v>
       </c>
       <c r="I21" s="16" t="s">
@@ -1897,7 +1915,7 @@
       </c>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>62</v>
       </c>
@@ -1919,7 +1937,7 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>79</v>
@@ -1929,7 +1947,7 @@
       </c>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>73</v>
       </c>
@@ -1950,8 +1968,8 @@
         <v>53</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
-        <v>78</v>
+      <c r="I23" s="75" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>79</v>
@@ -1961,7 +1979,7 @@
       </c>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>63</v>
       </c>
@@ -1981,11 +1999,11 @@
       <c r="G24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>45264</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>78</v>
+      <c r="I24" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
@@ -1995,7 +2013,7 @@
       </c>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>76</v>
       </c>
@@ -2016,8 +2034,8 @@
         <v>48</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="15" t="s">
-        <v>78</v>
+      <c r="I25" s="75" t="s">
+        <v>100</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2027,7 +2045,7 @@
       </c>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
@@ -2048,8 +2066,8 @@
         <v>48</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="15" t="s">
-        <v>78</v>
+      <c r="I26" s="75" t="s">
+        <v>101</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
@@ -2059,7 +2077,7 @@
       </c>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
@@ -2079,7 +2097,7 @@
       <c r="G27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="30">
         <v>45286</v>
       </c>
       <c r="I27" s="15" t="s">
@@ -2093,7 +2111,7 @@
       </c>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>72</v>
       </c>
@@ -2115,7 +2133,7 @@
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>83</v>
@@ -2125,7 +2143,7 @@
       </c>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
@@ -2146,8 +2164,8 @@
         <v>57</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="15" t="s">
-        <v>81</v>
+      <c r="I29" s="75" t="s">
+        <v>101</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>83</v>
@@ -2157,7 +2175,7 @@
       </c>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>60</v>
       </c>
@@ -2178,8 +2196,8 @@
         <v>57</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="29" t="s">
-        <v>81</v>
+      <c r="I30" s="76" t="s">
+        <v>100</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>20</v>
@@ -2187,11 +2205,11 @@
       <c r="K30" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2199,33 +2217,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -411,7 +406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -924,9 +919,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,7 +928,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,16 +958,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1301,41 +1296,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1636,16 +1631,16 @@
       <c r="G13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="61">
         <v>45190</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="62" t="s">
         <v>91</v>
       </c>
       <c r="L13" s="60"/>
@@ -1671,13 +1666,13 @@
         <v>49</v>
       </c>
       <c r="H14" s="58"/>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="62" t="s">
         <v>92</v>
       </c>
       <c r="L14" s="60"/>
@@ -1703,13 +1698,13 @@
         <v>49</v>
       </c>
       <c r="H15" s="58"/>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="62" t="s">
         <v>93</v>
       </c>
       <c r="L15" s="60"/>
@@ -1734,84 +1729,84 @@
       <c r="G16" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="61"/>
+      <c r="I16" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="62" t="s">
         <v>87</v>
       </c>
       <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="54">
         <v>45215</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="D17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="54">
         <v>45219</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="61">
         <v>45215</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="32">
         <v>45222</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="32">
         <v>45226</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="74"/>
+      <c r="I18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
@@ -1968,7 +1963,7 @@
         <v>53</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="75" t="s">
+      <c r="I23" s="65" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="13" t="s">
@@ -2002,7 +1997,7 @@
       <c r="H24" s="30">
         <v>45264</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="65" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="16" t="s">
@@ -2034,7 +2029,7 @@
         <v>48</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="65" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="13" t="s">
@@ -2066,7 +2061,7 @@
         <v>48</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="65" t="s">
         <v>101</v>
       </c>
       <c r="J26" s="13" t="s">
@@ -2164,7 +2159,7 @@
         <v>57</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="65" t="s">
         <v>101</v>
       </c>
       <c r="J29" s="13" t="s">
@@ -2196,7 +2191,7 @@
         <v>57</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="66" t="s">
         <v>100</v>
       </c>
       <c r="J30" s="26" t="s">
@@ -2218,32 +2213,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -418,11 +413,19 @@
     <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -751,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -953,11 +956,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,10 +983,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,8 +1300,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1792,7 +1798,7 @@
       <c r="K17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="68"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -1827,71 +1833,71 @@
       <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="54">
         <v>45229</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="54">
         <v>45233</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="56">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="61">
         <v>45229</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="67"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="32">
         <v>45236</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="32">
         <v>45240</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="76"/>
+      <c r="I20" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="77" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1924,8 +1930,8 @@
       <c r="J21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>53</v>
+      <c r="K21" s="78" t="s">
+        <v>106</v>
       </c>
       <c r="L21" s="17"/>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="6810"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -269,16 +274,10 @@
     <t>보그 PJ</t>
   </si>
   <si>
-    <t>파일럿 PJ</t>
-  </si>
-  <si>
     <t>2차 상세코딩</t>
   </si>
   <si>
     <t>1차 상세코딩</t>
-  </si>
-  <si>
-    <t>DC PJ</t>
   </si>
   <si>
     <t>오리엔테이션</t>
@@ -378,22 +377,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DC PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>React 응용</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -419,13 +402,77 @@
   </si>
   <si>
     <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DC PJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / Pilot PJ</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>파일럿 PJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>파일럿 PJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -754,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,9 +994,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,13 +1027,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1301,7 +1345,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1321,41 +1365,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>60</v>
@@ -1405,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1565,7 +1609,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" s="49" t="s">
         <v>37</v>
@@ -1597,7 +1641,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="49" t="s">
         <v>37</v>
@@ -1629,7 +1673,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="59" t="s">
         <v>39</v>
@@ -1660,13 +1704,13 @@
         <v>45190</v>
       </c>
       <c r="I13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>87</v>
-      </c>
       <c r="K13" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L13" s="60"/>
     </row>
@@ -1692,13 +1736,13 @@
       </c>
       <c r="H14" s="58"/>
       <c r="I14" s="62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>91</v>
       </c>
       <c r="L14" s="60"/>
     </row>
@@ -1724,13 +1768,13 @@
       </c>
       <c r="H15" s="58"/>
       <c r="I15" s="62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L15" s="60"/>
     </row>
@@ -1756,13 +1800,13 @@
       </c>
       <c r="H16" s="61"/>
       <c r="I16" s="62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L16" s="60"/>
     </row>
@@ -1790,15 +1834,15 @@
         <v>45215</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="67"/>
+        <v>94</v>
+      </c>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -1822,13 +1866,13 @@
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="62" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K18" s="62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L18" s="60"/>
     </row>
@@ -1856,10 +1900,10 @@
         <v>45229</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="59" t="s">
         <v>53</v>
@@ -1867,73 +1911,73 @@
       <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="54">
         <v>45236</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="32">
+      <c r="D20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="54">
         <v>45240</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="64" t="s">
+      <c r="H20" s="58"/>
+      <c r="I20" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="68" t="s">
-        <v>105</v>
+      <c r="J20" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="L20" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="32">
         <v>45243</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="32">
         <v>45247</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="75">
         <v>45243</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="17"/>
+      <c r="I21" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
@@ -1956,14 +2000,14 @@
         <v>52</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="15" t="s">
-        <v>80</v>
+      <c r="I22" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -1988,14 +2032,14 @@
         <v>52</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="65" t="s">
-        <v>96</v>
+      <c r="I23" s="64" t="s">
+        <v>103</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -2022,8 +2066,8 @@
       <c r="H24" s="30">
         <v>45264</v>
       </c>
-      <c r="I24" s="65" t="s">
-        <v>97</v>
+      <c r="I24" s="64" t="s">
+        <v>104</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
@@ -2054,8 +2098,8 @@
         <v>48</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="65" t="s">
-        <v>98</v>
+      <c r="I25" s="64" t="s">
+        <v>103</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2086,8 +2130,8 @@
         <v>48</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="65" t="s">
-        <v>99</v>
+      <c r="I26" s="64" t="s">
+        <v>105</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
@@ -2120,11 +2164,11 @@
       <c r="H27" s="30">
         <v>45286</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>77</v>
+      <c r="I27" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>34</v>
@@ -2152,14 +2196,14 @@
         <v>56</v>
       </c>
       <c r="H28" s="19"/>
-      <c r="I28" s="15" t="s">
-        <v>77</v>
+      <c r="I28" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L28" s="20"/>
     </row>
@@ -2184,14 +2228,14 @@
         <v>56</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="65" t="s">
-        <v>99</v>
+      <c r="I29" s="64" t="s">
+        <v>105</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2216,14 +2260,14 @@
         <v>56</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="66" t="s">
-        <v>98</v>
+      <c r="I30" s="65" t="s">
+        <v>105</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L30" s="29" t="s">
         <v>33</v>
@@ -2238,32 +2282,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -131,12 +131,6 @@
   <si>
     <t>1/17
 작품발표회</t>
-  </si>
-  <si>
-    <t>Flutter 응용</t>
-  </si>
-  <si>
-    <t>Flutter 기본</t>
   </si>
   <si>
     <t>1차 분석 / 설계</t>
@@ -465,6 +459,38 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter 기본 및 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Flutter 응용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / 프로젝트 심화</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -801,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1006,6 +1032,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,13 +1062,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,7 +1374,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1365,41 +1394,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1407,16 +1436,16 @@
         <v>25</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1449,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L6" s="50"/>
     </row>
@@ -1502,19 +1531,19 @@
         <v>5</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="50"/>
     </row>
@@ -1543,10 +1572,10 @@
         <v>26</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" s="50"/>
     </row>
@@ -1578,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9" s="50"/>
     </row>
@@ -1609,10 +1638,10 @@
         <v>26</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="50"/>
     </row>
@@ -1634,17 +1663,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="50"/>
     </row>
@@ -1666,17 +1695,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12" s="60"/>
     </row>
@@ -1698,25 +1727,25 @@
         <v>5</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="61">
         <v>45190</v>
       </c>
       <c r="I13" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>85</v>
-      </c>
       <c r="K13" s="62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L13" s="60"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="54">
         <v>45194</v>
@@ -1732,23 +1761,23 @@
         <v>3</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="58"/>
       <c r="I14" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J14" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>89</v>
       </c>
       <c r="L14" s="60"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="54">
         <v>45203</v>
@@ -1764,23 +1793,23 @@
         <v>3</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" s="58"/>
       <c r="I15" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" s="60"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="54">
         <v>45209</v>
@@ -1796,23 +1825,23 @@
         <v>4</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="61"/>
       <c r="I16" s="62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="54">
         <v>45215</v>
@@ -1828,25 +1857,25 @@
         <v>5</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="61">
         <v>45215</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="54">
         <v>45222</v>
@@ -1862,23 +1891,23 @@
         <v>5</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K18" s="62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="54">
         <v>45229</v>
@@ -1900,19 +1929,19 @@
         <v>45229</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="54">
         <v>45236</v>
@@ -1932,22 +1961,22 @@
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="70" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="32">
         <v>45243</v>
@@ -1965,23 +1994,23 @@
       <c r="G21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="68">
         <v>45243</v>
       </c>
       <c r="I21" s="67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="76"/>
+        <v>98</v>
+      </c>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="12">
         <v>45250</v>
@@ -1997,23 +2026,23 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="12">
         <v>45257</v>
@@ -2029,23 +2058,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="K23" s="78" t="s">
+        <v>106</v>
       </c>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="12">
         <v>45264</v>
@@ -2061,25 +2090,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H24" s="30">
         <v>45264</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>35</v>
+      <c r="K24" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="12">
         <v>45271</v>
@@ -2095,23 +2124,23 @@
         <v>5</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>35</v>
+      <c r="K25" s="78" t="s">
+        <v>108</v>
       </c>
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="12">
         <v>45278</v>
@@ -2127,23 +2156,23 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>34</v>
+      <c r="K26" s="78" t="s">
+        <v>109</v>
       </c>
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
@@ -2159,25 +2188,25 @@
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="30">
         <v>45286</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="K27" s="78" t="s">
+        <v>110</v>
       </c>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
@@ -2193,23 +2222,23 @@
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="78" t="s">
         <v>107</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
@@ -2225,23 +2254,23 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="22">
         <v>45306</v>
@@ -2257,17 +2286,17 @@
         <v>5</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L30" s="29" t="s">
         <v>33</v>
@@ -2282,32 +2311,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="B33" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -827,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1029,18 +1029,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,7 +1059,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1374,7 +1377,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,41 +1397,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1969,76 +1972,76 @@
       <c r="K20" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="54">
         <v>45243</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="D21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="54">
         <v>45247</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="61">
         <v>45243</v>
       </c>
-      <c r="I21" s="67" t="s">
+      <c r="I21" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="69"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="32">
         <v>45250</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="32">
         <v>45254</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="64" t="s">
+      <c r="H22" s="77"/>
+      <c r="I22" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
@@ -2067,7 +2070,7 @@
       <c r="J23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="78" t="s">
+      <c r="K23" s="69" t="s">
         <v>106</v>
       </c>
       <c r="L23" s="17"/>
@@ -2101,7 +2104,7 @@
       <c r="J24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="69" t="s">
         <v>107</v>
       </c>
       <c r="L24" s="18"/>
@@ -2133,7 +2136,7 @@
       <c r="J25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="69" t="s">
         <v>108</v>
       </c>
       <c r="L25" s="18"/>
@@ -2165,7 +2168,7 @@
       <c r="J26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="78" t="s">
+      <c r="K26" s="69" t="s">
         <v>109</v>
       </c>
       <c r="L26" s="20"/>
@@ -2199,7 +2202,7 @@
       <c r="J27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="78" t="s">
+      <c r="K27" s="69" t="s">
         <v>110</v>
       </c>
       <c r="L27" s="20"/>
@@ -2231,7 +2234,7 @@
       <c r="J28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="78" t="s">
+      <c r="K28" s="69" t="s">
         <v>107</v>
       </c>
       <c r="L28" s="20"/>
@@ -2311,32 +2314,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -827,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -873,15 +873,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,6 +1032,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,13 +1059,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1371,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1455,625 +1449,625 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="35">
         <v>45134</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="D5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="35">
         <v>45135</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="37">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="41" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>45138</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="45">
+      <c r="D6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="43">
         <v>45142</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="46" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="50"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>45145</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="45">
+      <c r="D7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="43">
         <v>45149</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="50"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>45152</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="D8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="43">
         <v>45156</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="45">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="50"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>45159</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="D9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="43">
         <v>45163</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>45166</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="45">
+      <c r="D10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="43">
         <v>45170</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="50">
         <v>45166</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="43">
         <v>45173</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="45">
+      <c r="D11" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="43">
         <v>45177</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="50"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="52">
         <v>45180</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="54">
+      <c r="D12" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="52">
         <v>45184</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59" t="s">
+      <c r="H12" s="56"/>
+      <c r="I12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="60"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="52">
         <v>45187</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="54">
+      <c r="D13" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="52">
         <v>45191</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="59">
         <v>45190</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="52">
         <v>45194</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="54">
+      <c r="D14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="52">
         <v>45196</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="62" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="60"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <v>45203</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="54">
+      <c r="D15" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="52">
         <v>45205</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="54">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="62" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="52">
         <v>45209</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="54">
+      <c r="D16" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="52">
         <v>45212</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62" t="s">
+      <c r="H16" s="59"/>
+      <c r="I16" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="60"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="52">
         <v>45215</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="54">
+      <c r="D17" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="52">
         <v>45219</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="59">
         <v>45215</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="66"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="52">
         <v>45222</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="54">
+      <c r="D18" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="52">
         <v>45226</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="62" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="60"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="52">
         <v>45229</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="54">
+      <c r="D19" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="52">
         <v>45233</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="54">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="59">
         <v>45229</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="52">
         <v>45236</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="54">
+      <c r="D20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="52">
         <v>45240</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="66" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="52">
         <v>45243</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="54">
+      <c r="D21" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="52">
         <v>45247</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="59">
         <v>45243</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="60"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="52">
         <v>45250</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="32">
+      <c r="D22" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="52">
         <v>45254</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78" t="s">
+      <c r="H22" s="56"/>
+      <c r="I22" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="79" t="s">
+      <c r="K22" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="67"/>
+      <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="30">
         <v>45257</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="30">
         <v>45261</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="64" t="s">
+      <c r="H23" s="68"/>
+      <c r="I23" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="69" t="s">
+      <c r="K23" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
@@ -2095,19 +2089,19 @@
       <c r="G24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="28">
         <v>45264</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="69" t="s">
+      <c r="K24" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
@@ -2129,17 +2123,17 @@
       <c r="G25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="64" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="62" t="s">
         <v>101</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="69" t="s">
+      <c r="K25" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
@@ -2161,17 +2155,17 @@
       <c r="G26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="64" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="62" t="s">
         <v>103</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="69" t="s">
+      <c r="K26" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="L26" s="20"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
@@ -2186,26 +2180,26 @@
       <c r="E27" s="12">
         <v>45289</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="28">
         <v>45286</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="62" t="s">
         <v>104</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="69" t="s">
+      <c r="K27" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
@@ -2220,24 +2214,24 @@
       <c r="E28" s="12">
         <v>45296</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="64" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="62" t="s">
         <v>105</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="69" t="s">
+      <c r="K28" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
@@ -2259,49 +2253,49 @@
       <c r="G29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="64" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="62" t="s">
         <v>103</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <v>45306</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="22">
+      <c r="D30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="20">
         <v>45310</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="65" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>33</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -471,14 +471,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Flutter 기본</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flutter 기본 및 응용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Flutter 응용</t>
     </r>
@@ -492,6 +484,14 @@
       </rPr>
       <t xml:space="preserve"> / 프로젝트 심화</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본 및 응용</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,20 +1023,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,8 +1056,14 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1371,7 +1374,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,41 +1394,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +1969,7 @@
       <c r="K20" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2037,71 +2040,71 @@
       <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="52">
         <v>45257</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="30">
+      <c r="D23" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="52">
         <v>45261</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69" t="s">
+      <c r="H23" s="56"/>
+      <c r="I23" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="58"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="30">
         <v>45264</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="30">
         <v>45268</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="76">
         <v>45264</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I24" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="67" t="s">
+      <c r="K24" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
@@ -2130,8 +2133,8 @@
       <c r="J25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="67" t="s">
-        <v>108</v>
+      <c r="K25" s="66" t="s">
+        <v>109</v>
       </c>
       <c r="L25" s="16"/>
     </row>
@@ -2162,8 +2165,8 @@
       <c r="J26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="67" t="s">
-        <v>109</v>
+      <c r="K26" s="66" t="s">
+        <v>110</v>
       </c>
       <c r="L26" s="18"/>
     </row>
@@ -2196,8 +2199,8 @@
       <c r="J27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="67" t="s">
-        <v>110</v>
+      <c r="K27" s="66" t="s">
+        <v>108</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2228,7 +2231,7 @@
       <c r="J28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="66" t="s">
         <v>107</v>
       </c>
       <c r="L28" s="18"/>
@@ -2308,32 +2311,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -84,10 +84,6 @@
     <t>1주차</t>
   </si>
   <si>
-    <t>2024-01-17(수) 작품발표회
-[3차 프로젝트 발표]</t>
-  </si>
-  <si>
     <t>Programming(php,Laravel)
 DataBase</t>
   </si>
@@ -127,10 +123,6 @@
   </si>
   <si>
     <t>DataBase</t>
-  </si>
-  <si>
-    <t>1/17
-작품발표회</t>
   </si>
   <si>
     <t>1차 분석 / 설계</t>
@@ -427,42 +419,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ 2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>파일럿 PJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>파일럿 PJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 심화</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -494,15 +450,87 @@
     <t>프로젝트 심화 / Flutter 기본 및 응용</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>2024-01-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>(화) 작품발표회
+[3차 프로젝트 발표]</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-09
+작품발표회</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+수료식</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>구직활동</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -569,7 +597,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +652,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -827,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -876,9 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,9 +940,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,6 +1063,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,14 +1087,23 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1374,7 +1414,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,753 +1434,753 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>45134</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="35">
+      <c r="D5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="33">
         <v>45135</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="35">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="39" t="s">
+      <c r="G5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>77</v>
+      <c r="L5" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>45138</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="D6" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="41">
         <v>45142</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="43">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="44" t="s">
+      <c r="G6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="48"/>
+      <c r="K6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>45145</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="D7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="41">
         <v>45149</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="44" t="s">
+      <c r="G7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="48"/>
+      <c r="H7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>45152</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="D8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="41">
         <v>45156</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="43">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="48"/>
+      <c r="G8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>45159</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="D9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="41">
         <v>45163</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="44" t="s">
+      <c r="G9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="48"/>
+      <c r="K9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>45166</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="43">
+      <c r="D10" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="41">
         <v>45170</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="43">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="50">
+      <c r="G10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="48">
         <v>45166</v>
       </c>
-      <c r="I10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="48"/>
+      <c r="I10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>45173</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="43">
+      <c r="D11" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="41">
         <v>45177</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="48"/>
+      <c r="G11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <v>45180</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="52">
+      <c r="D12" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="50">
         <v>45184</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="58"/>
+      <c r="G12" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="56"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="50">
         <v>45187</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="52">
+      <c r="D13" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="50">
         <v>45191</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="59">
+      <c r="G13" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="57">
         <v>45190</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="58"/>
+      <c r="K13" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="52">
+      <c r="B14" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="50">
         <v>45194</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="52">
+      <c r="D14" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="50">
         <v>45196</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="61" t="s">
+      <c r="G14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="58"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="52">
+      <c r="B15" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="50">
         <v>45203</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="52">
+      <c r="D15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="50">
         <v>45205</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="52">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="61" t="s">
+      <c r="G15" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="58"/>
+      <c r="J15" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="52">
+      <c r="B16" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="50">
         <v>45209</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="52">
+      <c r="D16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="50">
         <v>45212</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="58"/>
+      <c r="G16" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="52">
+      <c r="B17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="50">
         <v>45215</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="52">
+      <c r="D17" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="50">
         <v>45219</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="59">
+      <c r="G17" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="57">
         <v>45215</v>
       </c>
-      <c r="I17" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="64"/>
+      <c r="I17" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="62"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="52">
+      <c r="B18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="50">
         <v>45222</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="52">
+      <c r="D18" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="50">
         <v>45226</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="58"/>
+      <c r="G18" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="52">
+      <c r="B19" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="50">
         <v>45229</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="52">
+      <c r="D19" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="50">
         <v>45233</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="52">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="59">
+      <c r="G19" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="57">
         <v>45229</v>
       </c>
-      <c r="I19" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="58"/>
+      <c r="I19" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="52">
+      <c r="B20" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="50">
         <v>45236</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="52">
+      <c r="D20" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="50">
         <v>45240</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="65" t="s">
+      <c r="G20" s="53" t="s">
         <v>31</v>
       </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="63" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="52">
+      <c r="B21" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="50">
         <v>45243</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="52">
+      <c r="D21" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="50">
         <v>45247</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="59">
+      <c r="G21" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="57">
         <v>45243</v>
       </c>
-      <c r="I21" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="58"/>
+      <c r="I21" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="52">
+      <c r="B22" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="50">
         <v>45250</v>
       </c>
-      <c r="D22" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="52">
+      <c r="D22" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="50">
         <v>45254</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="58"/>
+      <c r="G22" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="52">
+      <c r="B23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="50">
         <v>45257</v>
       </c>
-      <c r="D23" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="D23" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="50">
         <v>45261</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="61" t="s">
+      <c r="G23" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="58"/>
+      <c r="L23" s="56"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="30">
+      <c r="B24" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="50">
         <v>45264</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="30">
+      <c r="D24" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="50">
         <v>45268</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="76">
+      <c r="G24" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="57">
         <v>45264</v>
       </c>
-      <c r="I24" s="67" t="s">
+      <c r="I24" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="78"/>
+      <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="A25" s="39"/>
+      <c r="B25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="28">
         <v>45271</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="28">
         <v>45275</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="13" t="s">
+      <c r="G25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="29" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="12">
         <v>45278</v>
@@ -2156,23 +2196,23 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="62" t="s">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
@@ -2183,30 +2223,30 @@
       <c r="E27" s="12">
         <v>45289</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="28">
+        <v>40</v>
+      </c>
+      <c r="H27" s="26">
         <v>45286</v>
       </c>
-      <c r="I27" s="62" t="s">
-        <v>104</v>
+      <c r="I27" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
@@ -2217,28 +2257,28 @@
       <c r="E28" s="12">
         <v>45296</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="62" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="60" t="s">
+        <v>110</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
@@ -2254,52 +2294,54 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>106</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="L29" s="79" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="B30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="19">
         <v>45306</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="D30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="19">
         <v>45310</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>33</v>
+      <c r="G30" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2311,32 +2353,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
+      <c r="B33" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -33,9 +33,6 @@
     <t>1차 주제선정 / 분석,설계</t>
   </si>
   <si>
-    <t>3차 주제선정 / 분석,설계</t>
-  </si>
-  <si>
     <t>1차 레이아웃 / 상세코딩</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>Web 퍼블리싱 기초</t>
-  </si>
-  <si>
-    <t>3차 분석,설계</t>
   </si>
   <si>
     <t>JavaScript</t>
@@ -267,9 +261,6 @@
   </si>
   <si>
     <t>오리엔테이션</t>
-  </si>
-  <si>
-    <t>3차 상세코딩</t>
   </si>
   <si>
     <t>프로젝트 심화</t>
@@ -469,6 +460,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(화) 작품발표회
 [3차 프로젝트 발표]</t>
@@ -499,6 +492,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 수료식</t>
@@ -519,6 +514,30 @@
   </si>
   <si>
     <t>DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 리액트PJ 완성도 높이기</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 - 리액트PJ 완성도 높이기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 - 리액트PJ 완성도 높이기</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1063,8 +1082,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,23 +1121,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,7 +1436,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1434,72 +1456,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="33">
         <v>45134</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="33">
         <v>45135</v>
@@ -1509,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -1518,18 +1540,18 @@
         <v>0</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="41">
         <v>45138</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="41">
         <v>45142</v>
@@ -1539,29 +1561,29 @@
         <v>5</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="41">
         <v>45145</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="41">
         <v>45149</v>
@@ -1571,31 +1593,31 @@
         <v>5</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="41">
         <v>45152</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="41">
         <v>45156</v>
@@ -1605,29 +1627,29 @@
         <v>4</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="41">
         <v>45159</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="41">
         <v>45163</v>
@@ -1637,29 +1659,29 @@
         <v>5</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="41">
         <v>45166</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="41">
         <v>45170</v>
@@ -1669,31 +1691,31 @@
         <v>5</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="48">
         <v>45166</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="41">
         <v>45173</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="41">
         <v>45177</v>
@@ -1703,29 +1725,29 @@
         <v>5</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="50">
         <v>45180</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="50">
         <v>45184</v>
@@ -1735,29 +1757,29 @@
         <v>5</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" s="56"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="50">
         <v>45187</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="50">
         <v>45191</v>
@@ -1767,31 +1789,31 @@
         <v>5</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="57">
         <v>45190</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J13" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="58" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>84</v>
       </c>
       <c r="L13" s="56"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="50">
         <v>45194</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="50">
         <v>45196</v>
@@ -1801,29 +1823,29 @@
         <v>3</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="54"/>
       <c r="I14" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="58" t="s">
         <v>82</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>85</v>
       </c>
       <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="50">
         <v>45203</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="50">
         <v>45205</v>
@@ -1833,29 +1855,29 @@
         <v>3</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="54"/>
       <c r="I15" s="58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L15" s="56"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="50">
         <v>45209</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="50">
         <v>45212</v>
@@ -1865,29 +1887,29 @@
         <v>4</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J16" s="59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L16" s="56"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="50">
         <v>45215</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="50">
         <v>45219</v>
@@ -1897,31 +1919,31 @@
         <v>5</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="57">
         <v>45215</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K17" s="58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L17" s="62"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="50">
         <v>45222</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="50">
         <v>45226</v>
@@ -1931,29 +1953,29 @@
         <v>5</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="54"/>
       <c r="I18" s="58" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K18" s="58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="50">
         <v>45229</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="50">
         <v>45233</v>
@@ -1963,31 +1985,31 @@
         <v>5</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="57">
         <v>45229</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="50">
         <v>45236</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="50">
         <v>45240</v>
@@ -1997,31 +2019,31 @@
         <v>5</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J20" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K20" s="58" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L20" s="63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="50">
         <v>45243</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="50">
         <v>45247</v>
@@ -2031,31 +2053,31 @@
         <v>5</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="57">
         <v>45243</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K21" s="58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="50">
         <v>45250</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="50">
         <v>45254</v>
@@ -2065,29 +2087,29 @@
         <v>5</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="59" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L22" s="56"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="50">
         <v>45257</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="50">
         <v>45261</v>
@@ -2097,29 +2119,29 @@
         <v>5</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K23" s="58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L23" s="56"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="50">
         <v>45264</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="50">
         <v>45268</v>
@@ -2129,96 +2151,96 @@
         <v>5</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24" s="57">
         <v>45264</v>
       </c>
       <c r="I24" s="59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="76"/>
+        <v>99</v>
+      </c>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="B25" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="50">
         <v>45271</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="28">
+      <c r="D25" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="50">
         <v>45275</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="67"/>
+      <c r="G25" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="81"/>
+      <c r="I25" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="A26" s="39"/>
+      <c r="B26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="28">
         <v>45278</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="28">
         <v>45282</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="17"/>
+      <c r="G26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="67"/>
+      <c r="I26" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="12">
         <v>45286</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="12">
         <v>45289</v>
@@ -2228,31 +2250,31 @@
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H27" s="26">
         <v>45286</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>111</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="12">
         <v>45293</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="12">
         <v>45296</v>
@@ -2262,29 +2284,29 @@
         <v>4</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>76</v>
+        <v>107</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="12">
         <v>45299</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="12">
         <v>45303</v>
@@ -2294,31 +2316,31 @@
         <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>103</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="79" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="L29" s="71" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="19">
         <v>45306</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="19">
         <v>45310</v>
@@ -2328,20 +2350,20 @@
         <v>5</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="77" t="s">
         <v>109</v>
       </c>
+      <c r="J30" s="69" t="s">
+        <v>106</v>
+      </c>
       <c r="K30" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="80" t="s">
-        <v>108</v>
+        <v>74</v>
+      </c>
+      <c r="L30" s="72" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2353,32 +2375,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="B33" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -616,7 +616,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,12 +632,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,147 +953,147 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,19 +1106,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,7 +1427,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1514,757 +1505,757 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>45134</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="32">
         <v>45135</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="37" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>45138</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="D6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="40">
         <v>45142</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>45145</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="40">
         <v>45149</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>45152</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="D8" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="40">
         <v>45156</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="42" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>45159</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="D9" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="40">
         <v>45163</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="42" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>45166</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="41">
+      <c r="D10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="40">
         <v>45170</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <v>45166</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="40">
         <v>45173</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="41">
+      <c r="D11" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="40">
         <v>45177</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>45180</v>
       </c>
-      <c r="D12" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="D12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="49">
         <v>45184</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="56"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>45187</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="D13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="49">
         <v>45191</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="56">
         <v>45190</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="56"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>45194</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="D14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="49">
         <v>45196</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="58" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="56"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>45203</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="D15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="49">
         <v>45205</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="58" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="56"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <v>45209</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="D16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="49">
         <v>45212</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="56"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="49">
         <v>45215</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="49">
         <v>45219</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <v>45215</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="62"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <v>45222</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="50">
+      <c r="D18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="49">
         <v>45226</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="58" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="56"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <v>45229</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="D19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="49">
         <v>45233</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="51">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="56">
         <v>45229</v>
       </c>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="56"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="49">
         <v>45236</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="50">
+      <c r="D20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="49">
         <v>45240</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55" t="s">
+      <c r="H20" s="53"/>
+      <c r="I20" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="62" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <v>45243</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="D21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="49">
         <v>45247</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="56">
         <v>45243</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="56"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="49">
         <v>45250</v>
       </c>
-      <c r="D22" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="50">
+      <c r="D22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="49">
         <v>45254</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="59" t="s">
+      <c r="H22" s="53"/>
+      <c r="I22" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="55" t="s">
+      <c r="K22" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="56"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <v>45257</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="50">
+      <c r="D23" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="49">
         <v>45261</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="59" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="56"/>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="49">
         <v>45264</v>
       </c>
-      <c r="D24" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="50">
+      <c r="D24" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="49">
         <v>45268</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="56">
         <v>45264</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="68"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="49">
         <v>45271</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="50">
+      <c r="D25" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="49">
         <v>45275</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="59" t="s">
+      <c r="H25" s="72"/>
+      <c r="I25" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="68"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="49">
         <v>45278</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="28">
+      <c r="D26" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="49">
         <v>45282</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="65" t="s">
+      <c r="H26" s="72"/>
+      <c r="I26" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="80"/>
+      <c r="L26" s="62"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="27">
         <v>45286</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="27">
         <v>45289</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="80">
         <v>45286</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J27" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="71"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
@@ -2287,13 +2278,13 @@
         <v>50</v>
       </c>
       <c r="H28" s="16"/>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="63" t="s">
         <v>99</v>
       </c>
       <c r="L28" s="17"/>
@@ -2319,16 +2310,16 @@
         <v>50</v>
       </c>
       <c r="H29" s="16"/>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="68" t="s">
         <v>103</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="71" t="s">
+      <c r="L29" s="69" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2353,16 +2344,16 @@
         <v>50</v>
       </c>
       <c r="H30" s="25"/>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="67" t="s">
         <v>106</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="72" t="s">
+      <c r="L30" s="70" t="s">
         <v>105</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -616,7 +616,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,12 +626,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -926,9 +920,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,151 +938,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1106,16 +1091,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,7 +1412,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1447,41 +1432,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1505,789 +1490,789 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>45134</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="D5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="30">
         <v>45135</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="36" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="38">
         <v>45138</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="D6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="38">
         <v>45142</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="40">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="38">
         <v>45145</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="D7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="38">
         <v>45149</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>45152</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="D8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="38">
         <v>45156</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="40">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="41" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>45159</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="D9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="38">
         <v>45163</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="41" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="45"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="38">
         <v>45166</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="40">
+      <c r="D10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="38">
         <v>45170</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="45">
         <v>45166</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="38">
         <v>45173</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="D11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="38">
         <v>45177</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="47">
         <v>45180</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="49">
+      <c r="D12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="47">
         <v>45184</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
+      <c r="H12" s="51"/>
+      <c r="I12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="55"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="47">
         <v>45187</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="D13" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="47">
         <v>45191</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="54">
         <v>45190</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="47">
         <v>45194</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="49">
+      <c r="D14" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="47">
         <v>45196</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="57" t="s">
+      <c r="H14" s="51"/>
+      <c r="I14" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="47">
         <v>45203</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="49">
+      <c r="D15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="47">
         <v>45205</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="49">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="57" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="55"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <v>45209</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="D16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="47">
         <v>45212</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57" t="s">
+      <c r="H16" s="54"/>
+      <c r="I16" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="47">
         <v>45215</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="D17" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="47">
         <v>45219</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="54">
         <v>45215</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="61"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="47">
         <v>45222</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="49">
+      <c r="D18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="47">
         <v>45226</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="57" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="55"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="47">
         <v>45229</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="49">
+      <c r="D19" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="47">
         <v>45233</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="49">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="54">
         <v>45229</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="47">
         <v>45236</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="49">
+      <c r="D20" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="47">
         <v>45240</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54" t="s">
+      <c r="H20" s="51"/>
+      <c r="I20" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="60" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="47">
         <v>45243</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="49">
+      <c r="D21" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="47">
         <v>45247</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="54">
         <v>45243</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="55"/>
+      <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="47">
         <v>45250</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="49">
+      <c r="D22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="47">
         <v>45254</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="58" t="s">
+      <c r="H22" s="51"/>
+      <c r="I22" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="55"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="47">
         <v>45257</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="49">
+      <c r="D23" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="47">
         <v>45261</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="58" t="s">
+      <c r="H23" s="51"/>
+      <c r="I23" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="55"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="47">
         <v>45264</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="49">
+      <c r="D24" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="47">
         <v>45268</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="54">
         <v>45264</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="66"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="47">
         <v>45271</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="49">
+      <c r="D25" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="47">
         <v>45275</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="58" t="s">
+      <c r="H25" s="69"/>
+      <c r="I25" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J25" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="66"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="47">
         <v>45278</v>
       </c>
-      <c r="D26" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="49">
+      <c r="D26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="47">
         <v>45282</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="58" t="s">
+      <c r="H26" s="69"/>
+      <c r="I26" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="47">
         <v>45286</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="27">
+      <c r="D27" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="47">
         <v>45289</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="54">
         <v>45286</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="71"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="25">
         <v>45293</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="25">
         <v>45296</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="59" t="s">
+      <c r="H28" s="77"/>
+      <c r="I28" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
@@ -2310,50 +2295,50 @@
         <v>50</v>
       </c>
       <c r="H29" s="16"/>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="65" t="s">
         <v>103</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="66" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>45306</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="18">
         <v>45310</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="60" t="s">
+      <c r="H30" s="23"/>
+      <c r="I30" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="67" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2366,32 +2351,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -868,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -899,27 +899,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,9 +1019,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,9 +1031,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,16 +1040,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,8 +1070,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1412,7 +1385,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1432,41 +1405,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1490,855 +1463,855 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="23">
         <v>45134</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="30">
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23">
         <v>45135</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="25">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="34" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="31">
         <v>45138</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="31">
         <v>45142</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="33">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="39" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="31">
         <v>45145</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="D7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="31">
         <v>45149</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="31">
         <v>45152</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="D8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="31">
         <v>45156</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="33">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="43"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="31">
         <v>45159</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="31">
         <v>45163</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="39" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="31">
         <v>45166</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="D10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="31">
         <v>45170</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="33">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="38">
         <v>45166</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="31">
         <v>45173</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="D11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="31">
         <v>45177</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="42" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="40">
         <v>45180</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="47">
+      <c r="D12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="40">
         <v>45184</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="53"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="40">
         <v>45187</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="D13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="40">
         <v>45191</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="47">
         <v>45190</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="53"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="40">
         <v>45194</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="47">
+      <c r="D14" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="40">
         <v>45196</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="55" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="53"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="40">
         <v>45203</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="47">
+      <c r="D15" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="40">
         <v>45205</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="42">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="55" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="53"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="40">
         <v>45209</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="47">
+      <c r="D16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="40">
         <v>45212</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="53"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="40">
         <v>45215</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="47">
+      <c r="D17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="40">
         <v>45219</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="47">
         <v>45215</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="59"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="40">
         <v>45222</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="47">
+      <c r="D18" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="40">
         <v>45226</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="55" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="53"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="40">
         <v>45229</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="47">
+      <c r="D19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="40">
         <v>45233</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="42">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="47">
         <v>45229</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="53"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="40">
         <v>45236</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="47">
+      <c r="D20" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="40">
         <v>45240</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="40">
         <v>45243</v>
       </c>
-      <c r="D21" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="D21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="40">
         <v>45247</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="47">
         <v>45243</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="53"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="40">
         <v>45250</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="47">
+      <c r="D22" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="40">
         <v>45254</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="56" t="s">
+      <c r="H22" s="44"/>
+      <c r="I22" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="53"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="40">
         <v>45257</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="47">
+      <c r="D23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="40">
         <v>45261</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="56" t="s">
+      <c r="H23" s="44"/>
+      <c r="I23" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="53"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="40">
         <v>45264</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="47">
+      <c r="D24" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="40">
         <v>45268</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="47">
         <v>45264</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="63"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="40">
         <v>45271</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="47">
+      <c r="D25" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="40">
         <v>45275</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="56" t="s">
+      <c r="H25" s="58"/>
+      <c r="I25" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="56" t="s">
+      <c r="J25" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="63"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="40">
         <v>45278</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="47">
+      <c r="D26" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="40">
         <v>45282</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="58"/>
+      <c r="I26" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="56" t="s">
+      <c r="J26" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="60"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="40">
         <v>45286</v>
       </c>
-      <c r="D27" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="47">
+      <c r="D27" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="40">
         <v>45289</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="47">
         <v>45286</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="56" t="s">
+      <c r="J27" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="52"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="40">
         <v>45293</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="D28" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="40">
         <v>45296</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="61" t="s">
+      <c r="H28" s="58"/>
+      <c r="I28" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="68"/>
+      <c r="L28" s="52"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="18">
         <v>45299</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="18">
         <v>45303</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="57" t="s">
+      <c r="H29" s="59"/>
+      <c r="I29" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="65" t="s">
+      <c r="J29" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="66" t="s">
+      <c r="L29" s="68" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="11">
         <v>45306</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="18">
+      <c r="D30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="11">
         <v>45310</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="58" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="57" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2351,32 +2324,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -616,7 +616,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,12 +659,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -868,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -899,42 +893,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,34 +977,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,10 +1010,37 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1352,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,41 +1372,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1463,855 +1430,855 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="11">
         <v>45134</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11">
         <v>45135</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="13">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="27" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="19">
         <v>45138</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
         <v>45142</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="21">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="19">
         <v>45145</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19">
         <v>45149</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="19">
         <v>45152</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
         <v>45156</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="21">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="19">
         <v>45159</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="D9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19">
         <v>45163</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="19">
         <v>45166</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="19">
         <v>45170</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="21">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="26">
         <v>45166</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="19">
         <v>45173</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19">
         <v>45177</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="28">
         <v>45180</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="40">
+      <c r="D12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="28">
         <v>45184</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="46"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="28">
         <v>45187</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="40">
+      <c r="D13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="28">
         <v>45191</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="35">
         <v>45190</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="46"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="28">
         <v>45194</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="28">
         <v>45196</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="48" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="28">
         <v>45203</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="D15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="28">
         <v>45205</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="30">
         <f>DAYS360(C15,E15)+1</f>
         <v>3</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="48" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="46"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="28">
         <v>45209</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="D16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28">
         <v>45212</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="28">
         <v>45215</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="D17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="28">
         <v>45219</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="35">
         <v>45215</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="51"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="28">
         <v>45222</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="40">
+      <c r="D18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="28">
         <v>45226</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="46"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="28">
         <v>45229</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="40">
+      <c r="D19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="28">
         <v>45233</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="30">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="35">
         <v>45229</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="46"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="28">
         <v>45236</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="40">
+      <c r="D20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="28">
         <v>45240</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="52" t="s">
+      <c r="L20" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="28">
         <v>45243</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="D21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="28">
         <v>45247</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="35">
         <v>45243</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="46"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="28">
         <v>45250</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="D22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="28">
         <v>45254</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="49" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="28">
         <v>45257</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="D23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="28">
         <v>45261</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="49" t="s">
+      <c r="H23" s="32"/>
+      <c r="I23" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="46"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="28">
         <v>45264</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="40">
+      <c r="D24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="28">
         <v>45268</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="35">
         <v>45264</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="48" t="s">
+      <c r="K24" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="54"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="28">
         <v>45271</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="D25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="28">
         <v>45275</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="54"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="28">
         <v>45278</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="40">
+      <c r="D26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="28">
         <v>45282</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="41"/>
+      <c r="I26" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="52"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="28">
         <v>45286</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="40">
+      <c r="D27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="28">
         <v>45289</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="35">
         <v>45286</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="52"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="28">
         <v>45293</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="D28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="28">
         <v>45296</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="49" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="52"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="28">
         <v>45299</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="28">
         <v>45303</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="53" t="s">
+      <c r="H29" s="41"/>
+      <c r="I29" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="56" t="s">
+      <c r="J29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="K29" s="67" t="s">
+      <c r="K29" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="59" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="50">
         <v>45306</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="D30" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="50">
         <v>45310</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="50" t="s">
+      <c r="H30" s="54"/>
+      <c r="I30" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="57" t="s">
+      <c r="L30" s="58" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2324,32 +2291,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
